--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2020-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2021-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C528FAE-3F93-4FFA-BB7B-3F1F38D4D996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D42F40-391B-4D9C-AE8C-2F1AC5DA19C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SEMANA</t>
-  </si>
-  <si>
-    <t>Examen parcial</t>
-  </si>
-  <si>
-    <t>Examen sustitutorio</t>
   </si>
   <si>
     <t>INICIO</t>
@@ -42,50 +36,7 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Interacción con Estudiantes.
-Explicación del Silabos.
-Elección de Delegados.</t>
-  </si>
-  <si>
     <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>Semana de la facultad</t>
-  </si>
-  <si>
-    <t>Aplicación de Prueba de Entrada</t>
-  </si>
-  <si>
-    <t>Practica calificada 1</t>
-  </si>
-  <si>
-    <t>Examen final</t>
-  </si>
-  <si>
-    <t>Practica calificada 2</t>
-  </si>
-  <si>
-    <t>Practica calificada 3</t>
-  </si>
-  <si>
-    <t>Exposición del proyecto - primera parte</t>
-  </si>
-  <si>
-    <t>No hay clases (feriado)</t>
-  </si>
-  <si>
-    <t>JU 17.12 1ra. Practica (Lenguaje SQL)</t>
-  </si>
-  <si>
-    <t>JU 07.01.21 2da Pract. (Casos de USO y Documentación de Casos de USO)
-VI 08.01.21 Entrega y Exposición del proyecto - primera parte</t>
-  </si>
-  <si>
-    <t>Practica calificada 4
-Exposición del proyecto - segunda parte</t>
-  </si>
-  <si>
-    <t>Practica 3: Login, un proceso de su proyecto y documentación del proyecto.</t>
   </si>
 </sst>
 </file>
@@ -524,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,60 +494,44 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>44144</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
-        <v>44151</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
-        <v>44158</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
-        <v>44165</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="16"/>
     </row>
@@ -604,83 +539,55 @@
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
-        <v>44172</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
-        <v>44179</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
-        <v>44186</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
-        <v>44193</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
-        <v>44200</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
-        <v>44207</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
-        <v>44214</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
@@ -688,45 +595,31 @@
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="9">
-        <v>44221</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
-        <v>44228</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="9">
-        <v>44235</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
-        <v>44242</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
@@ -734,24 +627,16 @@
       <c r="B18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="12">
-        <v>44249</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>17</v>
       </c>
-      <c r="C19" s="12">
-        <v>44256</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
   </sheetData>
